--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -640,7 +640,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr"/>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -941,7 +945,11 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr"/>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -38,10 +42,6 @@
       <sz val="14"/>
     </font>
     <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0b0b0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -147,24 +152,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -181,7 +186,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,10 +538,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C37"/>
+      <selection activeCell="B1" sqref="A1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -555,6 +566,21 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -564,6 +590,21 @@
           <t>MAT15</t>
         </is>
       </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>BINDO8</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>BINDO9</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>BASDA5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -575,6 +616,17 @@
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr"/>
+      <c r="D3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -586,6 +638,9 @@
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
+      <c r="D4" s="13" t="inlineStr"/>
+      <c r="E4" s="9" t="inlineStr"/>
+      <c r="F4" s="13" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -597,6 +652,9 @@
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
+      <c r="D5" s="13" t="inlineStr"/>
+      <c r="E5" s="9" t="inlineStr"/>
+      <c r="F5" s="13" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -608,6 +666,9 @@
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr"/>
+      <c r="D6" s="13" t="inlineStr"/>
+      <c r="E6" s="9" t="inlineStr"/>
+      <c r="F6" s="13" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -619,6 +680,17 @@
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr"/>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -630,6 +702,9 @@
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr"/>
+      <c r="D8" s="13" t="inlineStr"/>
+      <c r="E8" s="9" t="inlineStr"/>
+      <c r="F8" s="13" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -640,11 +715,22 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -656,6 +742,9 @@
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
+      <c r="D10" s="13" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr"/>
+      <c r="F10" s="13" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -666,7 +755,22 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr"/>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -678,6 +782,9 @@
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="13" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr"/>
+      <c r="F12" s="13" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -689,6 +796,17 @@
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -699,7 +817,22 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr"/>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -711,6 +844,17 @@
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -722,6 +866,17 @@
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -733,6 +888,9 @@
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="13" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr"/>
+      <c r="F17" s="13" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -744,6 +902,17 @@
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -755,6 +924,17 @@
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -766,6 +946,9 @@
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr"/>
+      <c r="D20" s="13" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr"/>
+      <c r="F20" s="13" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -777,6 +960,9 @@
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr"/>
+      <c r="D21" s="13" t="inlineStr"/>
+      <c r="E21" s="9" t="inlineStr"/>
+      <c r="F21" s="13" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -788,6 +974,9 @@
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="13" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr"/>
+      <c r="F22" s="13" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -799,6 +988,9 @@
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr"/>
+      <c r="D23" s="13" t="inlineStr"/>
+      <c r="E23" s="9" t="inlineStr"/>
+      <c r="F23" s="13" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -810,6 +1002,17 @@
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -820,7 +1023,22 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="13" t="inlineStr">
+      <c r="C25" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -836,6 +1054,9 @@
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="13" t="inlineStr"/>
+      <c r="E26" s="9" t="inlineStr"/>
+      <c r="F26" s="13" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -847,6 +1068,9 @@
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr"/>
+      <c r="D27" s="13" t="inlineStr"/>
+      <c r="E27" s="9" t="inlineStr"/>
+      <c r="F27" s="13" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -858,6 +1082,9 @@
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr"/>
+      <c r="D28" s="13" t="inlineStr"/>
+      <c r="E28" s="9" t="inlineStr"/>
+      <c r="F28" s="13" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -869,6 +1096,9 @@
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr"/>
+      <c r="D29" s="13" t="inlineStr"/>
+      <c r="E29" s="9" t="inlineStr"/>
+      <c r="F29" s="13" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -880,6 +1110,9 @@
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="13" t="inlineStr"/>
+      <c r="E30" s="9" t="inlineStr"/>
+      <c r="F30" s="13" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -891,6 +1124,17 @@
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr"/>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -902,6 +1146,9 @@
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="13" t="inlineStr"/>
+      <c r="E32" s="9" t="inlineStr"/>
+      <c r="F32" s="13" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -913,6 +1160,17 @@
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -924,6 +1182,9 @@
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="13" t="inlineStr"/>
+      <c r="E34" s="9" t="inlineStr"/>
+      <c r="F34" s="13" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -934,7 +1195,22 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr"/>
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -945,11 +1221,22 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C36" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -961,6 +1248,9 @@
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="13" t="inlineStr"/>
+      <c r="E37" s="9" t="inlineStr"/>
+      <c r="F37" s="13" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -538,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:C37"/>
@@ -581,6 +581,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -605,6 +610,11 @@
           <t>BASDA5</t>
         </is>
       </c>
+      <c r="G2" s="12" t="inlineStr">
+        <is>
+          <t>PAI12</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -627,6 +637,11 @@
         </is>
       </c>
       <c r="F3" s="13" t="inlineStr"/>
+      <c r="G3" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -638,9 +653,18 @@
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="13" t="inlineStr"/>
-      <c r="E4" s="9" t="inlineStr"/>
+      <c r="D4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="13" t="inlineStr"/>
+      <c r="G4" s="9" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -652,9 +676,22 @@
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
-      <c r="D5" s="13" t="inlineStr"/>
-      <c r="E5" s="9" t="inlineStr"/>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="13" t="inlineStr"/>
+      <c r="G5" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -669,6 +706,7 @@
       <c r="D6" s="13" t="inlineStr"/>
       <c r="E6" s="9" t="inlineStr"/>
       <c r="F6" s="13" t="inlineStr"/>
+      <c r="G6" s="9" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -691,6 +729,11 @@
         </is>
       </c>
       <c r="F7" s="13" t="inlineStr"/>
+      <c r="G7" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -705,6 +748,7 @@
       <c r="D8" s="13" t="inlineStr"/>
       <c r="E8" s="9" t="inlineStr"/>
       <c r="F8" s="13" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -730,7 +774,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F9" s="13" t="inlineStr"/>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G9" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -745,6 +798,7 @@
       <c r="D10" s="13" t="inlineStr"/>
       <c r="E10" s="9" t="inlineStr"/>
       <c r="F10" s="13" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -771,6 +825,11 @@
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr"/>
+      <c r="G11" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -785,6 +844,7 @@
       <c r="D12" s="13" t="inlineStr"/>
       <c r="E12" s="9" t="inlineStr"/>
       <c r="F12" s="13" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -807,6 +867,11 @@
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr"/>
+      <c r="G13" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -833,6 +898,11 @@
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -855,6 +925,7 @@
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -877,6 +948,7 @@
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr"/>
+      <c r="G16" s="9" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -891,6 +963,7 @@
       <c r="D17" s="13" t="inlineStr"/>
       <c r="E17" s="9" t="inlineStr"/>
       <c r="F17" s="13" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -913,6 +986,11 @@
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -935,6 +1013,7 @@
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -949,6 +1028,11 @@
       <c r="D20" s="13" t="inlineStr"/>
       <c r="E20" s="9" t="inlineStr"/>
       <c r="F20" s="13" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -960,9 +1044,22 @@
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr"/>
-      <c r="D21" s="13" t="inlineStr"/>
-      <c r="E21" s="9" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E21" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F21" s="13" t="inlineStr"/>
+      <c r="G21" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -977,6 +1074,7 @@
       <c r="D22" s="13" t="inlineStr"/>
       <c r="E22" s="9" t="inlineStr"/>
       <c r="F22" s="13" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -991,6 +1089,7 @@
       <c r="D23" s="13" t="inlineStr"/>
       <c r="E23" s="9" t="inlineStr"/>
       <c r="F23" s="13" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -1013,6 +1112,11 @@
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr"/>
+      <c r="G24" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -1043,6 +1147,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="G25" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -1054,9 +1163,22 @@
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr"/>
-      <c r="D26" s="13" t="inlineStr"/>
-      <c r="E26" s="9" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F26" s="13" t="inlineStr"/>
+      <c r="G26" s="9" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -1068,9 +1190,18 @@
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr"/>
-      <c r="D27" s="13" t="inlineStr"/>
-      <c r="E27" s="9" t="inlineStr"/>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="13" t="inlineStr"/>
+      <c r="G27" s="9" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -1085,6 +1216,11 @@
       <c r="D28" s="13" t="inlineStr"/>
       <c r="E28" s="9" t="inlineStr"/>
       <c r="F28" s="13" t="inlineStr"/>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -1099,6 +1235,11 @@
       <c r="D29" s="13" t="inlineStr"/>
       <c r="E29" s="9" t="inlineStr"/>
       <c r="F29" s="13" t="inlineStr"/>
+      <c r="G29" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -1113,6 +1254,7 @@
       <c r="D30" s="13" t="inlineStr"/>
       <c r="E30" s="9" t="inlineStr"/>
       <c r="F30" s="13" t="inlineStr"/>
+      <c r="G30" s="9" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -1123,7 +1265,11 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr"/>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1134,7 +1280,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F31" s="13" t="inlineStr"/>
+      <c r="F31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -1149,6 +1304,7 @@
       <c r="D32" s="13" t="inlineStr"/>
       <c r="E32" s="9" t="inlineStr"/>
       <c r="F32" s="13" t="inlineStr"/>
+      <c r="G32" s="9" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -1171,6 +1327,11 @@
         </is>
       </c>
       <c r="F33" s="13" t="inlineStr"/>
+      <c r="G33" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -1185,6 +1346,7 @@
       <c r="D34" s="13" t="inlineStr"/>
       <c r="E34" s="9" t="inlineStr"/>
       <c r="F34" s="13" t="inlineStr"/>
+      <c r="G34" s="9" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -1210,7 +1372,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F35" s="13" t="inlineStr"/>
+      <c r="F35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -1236,7 +1407,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F36" s="13" t="inlineStr"/>
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -1251,6 +1431,11 @@
       <c r="D37" s="13" t="inlineStr"/>
       <c r="E37" s="9" t="inlineStr"/>
       <c r="F37" s="13" t="inlineStr"/>
+      <c r="G37" s="9" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -664,7 +664,11 @@
         </is>
       </c>
       <c r="F4" s="13" t="inlineStr"/>
-      <c r="G4" s="9" t="inlineStr"/>
+      <c r="G4" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -706,7 +710,11 @@
       <c r="D6" s="13" t="inlineStr"/>
       <c r="E6" s="9" t="inlineStr"/>
       <c r="F6" s="13" t="inlineStr"/>
-      <c r="G6" s="9" t="inlineStr"/>
+      <c r="G6" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -717,7 +725,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr"/>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -963,7 +975,11 @@
       <c r="D17" s="13" t="inlineStr"/>
       <c r="E17" s="9" t="inlineStr"/>
       <c r="F17" s="13" t="inlineStr"/>
-      <c r="G17" s="9" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -1013,7 +1029,11 @@
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr"/>
-      <c r="G19" s="9" t="inlineStr"/>
+      <c r="G19" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -1100,7 +1120,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr"/>
+      <c r="C24" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1201,7 +1225,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="inlineStr"/>
-      <c r="G27" s="9" t="inlineStr"/>
+      <c r="G27" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -1254,7 +1282,11 @@
       <c r="D30" s="13" t="inlineStr"/>
       <c r="E30" s="9" t="inlineStr"/>
       <c r="F30" s="13" t="inlineStr"/>
-      <c r="G30" s="9" t="inlineStr"/>
+      <c r="G30" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -1342,11 +1374,27 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr"/>
-      <c r="D34" s="13" t="inlineStr"/>
-      <c r="E34" s="9" t="inlineStr"/>
+      <c r="C34" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F34" s="13" t="inlineStr"/>
-      <c r="G34" s="9" t="inlineStr"/>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -625,7 +625,11 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr"/>
+      <c r="C3" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -679,7 +683,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr"/>
+      <c r="C5" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1240,9 +1248,21 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="9" t="inlineStr"/>
-      <c r="D28" s="13" t="inlineStr"/>
-      <c r="E28" s="9" t="inlineStr"/>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E28" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="13" t="inlineStr"/>
       <c r="G28" s="9" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -844,7 +844,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F11" s="13" t="inlineStr"/>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G11" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -875,7 +879,11 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr"/>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1025,7 +1033,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr"/>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1194,7 +1206,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr"/>
+      <c r="C26" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1221,7 +1237,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr"/>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -698,7 +698,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr"/>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G5" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -925,7 +929,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F14" s="13" t="inlineStr"/>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G14" s="9" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1083,7 +1091,11 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr"/>
+      <c r="C21" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1387,7 +1399,11 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr"/>
+      <c r="C33" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1398,7 +1414,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F33" s="13" t="inlineStr"/>
+      <c r="F33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G33" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -961,7 +961,11 @@
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr"/>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -995,7 +999,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr"/>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="13" t="inlineStr"/>
       <c r="E17" s="9" t="inlineStr"/>
       <c r="F17" s="13" t="inlineStr"/>
@@ -1233,7 +1241,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F26" s="13" t="inlineStr"/>
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G26" s="9" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1388,7 +1400,11 @@
       <c r="D32" s="13" t="inlineStr"/>
       <c r="E32" s="9" t="inlineStr"/>
       <c r="F32" s="13" t="inlineStr"/>
-      <c r="G32" s="9" t="inlineStr"/>
+      <c r="G32" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -752,7 +752,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F7" s="13" t="inlineStr"/>
+      <c r="F7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G7" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -1138,7 +1138,11 @@
       <c r="D22" s="13" t="inlineStr"/>
       <c r="E22" s="9" t="inlineStr"/>
       <c r="F22" s="13" t="inlineStr"/>
-      <c r="G22" s="9" t="inlineStr"/>
+      <c r="G22" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -1311,7 +1315,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F28" s="13" t="inlineStr"/>
+      <c r="F28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G28" s="9" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -1068,7 +1068,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="13" t="inlineStr"/>
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G19" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -1187,7 +1187,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F24" s="13" t="inlineStr"/>
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G24" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -640,7 +640,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr"/>
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G3" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -656,7 +660,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr"/>
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -667,7 +675,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr"/>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G4" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -902,7 +914,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F13" s="13" t="inlineStr"/>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G13" s="14" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1122,7 +1138,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F21" s="13" t="inlineStr"/>
+      <c r="F21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G21" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-15 (1 November 2021 - 7 November 2021).xlsx
@@ -1312,7 +1312,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F27" s="13" t="inlineStr"/>
+      <c r="F27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G27" s="14" t="inlineStr">
         <is>
           <t>ü</t>
